--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Ephb6</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H2">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I2">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J2">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.07195549999999999</v>
+        <v>0.204759</v>
       </c>
       <c r="N2">
-        <v>0.143911</v>
+        <v>0.409518</v>
       </c>
       <c r="O2">
-        <v>0.03873632163709056</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P2">
-        <v>0.03266745843446078</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q2">
-        <v>0.01599013109875</v>
+        <v>0.0624556925595</v>
       </c>
       <c r="R2">
-        <v>0.063960524395</v>
+        <v>0.249822770238</v>
       </c>
       <c r="S2">
-        <v>0.007848799806758911</v>
+        <v>0.02862615597341277</v>
       </c>
       <c r="T2">
-        <v>0.005816198296229765</v>
+        <v>0.02140080996939965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H3">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I3">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J3">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.407406</v>
       </c>
       <c r="O3">
-        <v>0.2525529968289247</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P3">
-        <v>0.3194778509315529</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q3">
-        <v>0.1042524266116667</v>
+        <v>0.143095893941</v>
       </c>
       <c r="R3">
-        <v>0.6255145596699999</v>
+        <v>0.8585753636460001</v>
       </c>
       <c r="S3">
-        <v>0.0511725901926947</v>
+        <v>0.06558706198330226</v>
       </c>
       <c r="T3">
-        <v>0.05688065804075818</v>
+        <v>0.0735489730751588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,140 +664,140 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H4">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I4">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J4">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03556466666666667</v>
+        <v>0.7764725</v>
       </c>
       <c r="N4">
-        <v>0.106694</v>
+        <v>1.552945</v>
       </c>
       <c r="O4">
-        <v>0.01914578269786067</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P4">
-        <v>0.02421928699130962</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q4">
-        <v>0.007903269138333334</v>
+        <v>0.23684003018625</v>
       </c>
       <c r="R4">
-        <v>0.04741961483000001</v>
+        <v>0.9473601207450001</v>
       </c>
       <c r="S4">
-        <v>0.003879341382670934</v>
+        <v>0.1085540703659705</v>
       </c>
       <c r="T4">
-        <v>0.004312064130038279</v>
+        <v>0.08115462772803475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.662143</v>
+      </c>
+      <c r="I5">
+        <v>0.1467234066692216</v>
+      </c>
+      <c r="J5">
+        <v>0.1911450260920121</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="G5">
-        <v>0.2222225</v>
-      </c>
-      <c r="H5">
-        <v>0.444445</v>
-      </c>
-      <c r="I5">
-        <v>0.2026211956904957</v>
-      </c>
-      <c r="J5">
-        <v>0.1780425712608937</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>1.095428</v>
+        <v>0.204759</v>
       </c>
       <c r="N5">
-        <v>2.190856</v>
+        <v>0.409518</v>
       </c>
       <c r="O5">
-        <v>0.5897096307895137</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P5">
-        <v>0.4973191577842487</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q5">
-        <v>0.24342874873</v>
+        <v>0.045193246179</v>
       </c>
       <c r="R5">
-        <v>0.97371499492</v>
+        <v>0.271159477074</v>
       </c>
       <c r="S5">
-        <v>0.119487670500772</v>
+        <v>0.02071402719347655</v>
       </c>
       <c r="T5">
-        <v>0.08854398158920972</v>
+        <v>0.02322859695589016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2222225</v>
+        <v>0.2207143333333333</v>
       </c>
       <c r="H6">
-        <v>0.444445</v>
+        <v>0.662143</v>
       </c>
       <c r="I6">
-        <v>0.2026211956904957</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J6">
-        <v>0.1780425712608937</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1854883333333334</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N6">
-        <v>0.5564650000000001</v>
+        <v>1.407406</v>
       </c>
       <c r="O6">
-        <v>0.09985526804661032</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P6">
-        <v>0.1263162458584279</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q6">
-        <v>0.04121968115416667</v>
+        <v>0.1035448923397778</v>
       </c>
       <c r="R6">
-        <v>0.247318086925</v>
+        <v>0.931904031058</v>
       </c>
       <c r="S6">
-        <v>0.02023279380759914</v>
+        <v>0.04745912048841494</v>
       </c>
       <c r="T6">
-        <v>0.02248966920465772</v>
+        <v>0.07983059774491365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,54 +856,54 @@
         <v>0.662143</v>
       </c>
       <c r="I7">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J7">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07195549999999999</v>
+        <v>0.7764725</v>
       </c>
       <c r="N7">
-        <v>0.143911</v>
+        <v>1.552945</v>
       </c>
       <c r="O7">
-        <v>0.03873632163709056</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P7">
-        <v>0.03266745843446078</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q7">
-        <v>0.01588161021216667</v>
+        <v>0.1713786101891667</v>
       </c>
       <c r="R7">
-        <v>0.095289661273</v>
+        <v>1.028271661135</v>
       </c>
       <c r="S7">
-        <v>0.00779553203125511</v>
+        <v>0.0785502589873301</v>
       </c>
       <c r="T7">
-        <v>0.008665087892676181</v>
+        <v>0.08808583139120831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,60 +912,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2207143333333333</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H8">
-        <v>0.662143</v>
+        <v>0.209003</v>
       </c>
       <c r="I8">
-        <v>0.2012460580095654</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J8">
-        <v>0.2652513635261999</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.4691353333333333</v>
+        <v>0.204759</v>
       </c>
       <c r="N8">
-        <v>1.407406</v>
+        <v>0.409518</v>
       </c>
       <c r="O8">
-        <v>0.2525529968289247</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P8">
-        <v>0.3194778509315529</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q8">
-        <v>0.1035448923397778</v>
+        <v>0.014265081759</v>
       </c>
       <c r="R8">
-        <v>0.931904031058</v>
+        <v>0.08559049055399999</v>
       </c>
       <c r="S8">
-        <v>0.05082529505032336</v>
+        <v>0.006538306416466202</v>
       </c>
       <c r="T8">
-        <v>0.08474193557601445</v>
+        <v>0.007332021103556046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,57 +974,57 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2207143333333333</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H9">
-        <v>0.662143</v>
+        <v>0.209003</v>
       </c>
       <c r="I9">
-        <v>0.2012460580095654</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J9">
-        <v>0.2652513635261999</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03556466666666667</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N9">
-        <v>0.106694</v>
+        <v>1.407406</v>
       </c>
       <c r="O9">
-        <v>0.01914578269786067</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P9">
-        <v>0.02421928699130962</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q9">
-        <v>0.007849631693555556</v>
+        <v>0.03268356402422222</v>
       </c>
       <c r="R9">
-        <v>0.07064668524200002</v>
+        <v>0.294152076218</v>
       </c>
       <c r="S9">
-        <v>0.003853013295452202</v>
+        <v>0.01498029664202474</v>
       </c>
       <c r="T9">
-        <v>0.006424198898077233</v>
+        <v>0.02519823424921835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2207143333333333</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H10">
-        <v>0.662143</v>
+        <v>0.209003</v>
       </c>
       <c r="I10">
-        <v>0.2012460580095654</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J10">
-        <v>0.2652513635261999</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,710 +1054,400 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.095428</v>
+        <v>0.7764725</v>
       </c>
       <c r="N10">
-        <v>2.190856</v>
+        <v>1.552945</v>
       </c>
       <c r="O10">
-        <v>0.5897096307895137</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P10">
-        <v>0.4973191577842487</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q10">
-        <v>0.2417766607346667</v>
+        <v>0.05409502730583333</v>
       </c>
       <c r="R10">
-        <v>1.450659964408</v>
+        <v>0.324570163835</v>
       </c>
       <c r="S10">
-        <v>0.1186767385666658</v>
+        <v>0.02479410003447738</v>
       </c>
       <c r="T10">
-        <v>0.1319145847099733</v>
+        <v>0.02780396835465558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2207143333333333</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H11">
-        <v>0.662143</v>
+        <v>1.487516</v>
       </c>
       <c r="I11">
-        <v>0.2012460580095654</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J11">
-        <v>0.2652513635261999</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.1854883333333334</v>
+        <v>0.204759</v>
       </c>
       <c r="N11">
-        <v>0.5564650000000001</v>
+        <v>0.409518</v>
       </c>
       <c r="O11">
-        <v>0.09985526804661032</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P11">
-        <v>0.1263162458584279</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q11">
-        <v>0.04093993383277779</v>
+        <v>0.152291144322</v>
       </c>
       <c r="R11">
-        <v>0.3684594044950001</v>
+        <v>0.6091645772879999</v>
       </c>
       <c r="S11">
-        <v>0.02009547906586884</v>
+        <v>0.06980164452708433</v>
       </c>
       <c r="T11">
-        <v>0.03350555644945871</v>
+        <v>0.05218345527995902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08209333333333334</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H12">
-        <v>0.24628</v>
+        <v>1.487516</v>
       </c>
       <c r="I12">
-        <v>0.07485222854669725</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J12">
-        <v>0.09865860668954067</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07195549999999999</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N12">
-        <v>0.143911</v>
+        <v>1.407406</v>
       </c>
       <c r="O12">
-        <v>0.03873632163709056</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P12">
-        <v>0.03266745843446078</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q12">
-        <v>0.005907066846666666</v>
+        <v>0.3489231572493333</v>
       </c>
       <c r="R12">
-        <v>0.03544240108</v>
+        <v>2.093538943496</v>
       </c>
       <c r="S12">
-        <v>0.002899500000237877</v>
+        <v>0.1599266345920255</v>
       </c>
       <c r="T12">
-        <v>0.003222925933232384</v>
+        <v>0.1793408545210369</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08209333333333334</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H13">
-        <v>0.24628</v>
+        <v>1.487516</v>
       </c>
       <c r="I13">
-        <v>0.07485222854669725</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J13">
-        <v>0.09865860668954067</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4691353333333333</v>
+        <v>0.7764725</v>
       </c>
       <c r="N13">
-        <v>1.407406</v>
+        <v>1.552945</v>
       </c>
       <c r="O13">
-        <v>0.2525529968289247</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P13">
-        <v>0.3194778509315529</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q13">
-        <v>0.03851288329777778</v>
+        <v>0.5775076336549999</v>
       </c>
       <c r="R13">
-        <v>0.34661594968</v>
+        <v>2.31003053462</v>
       </c>
       <c r="S13">
-        <v>0.01890415463879198</v>
+        <v>0.2646968261715309</v>
       </c>
       <c r="T13">
-        <v>0.03151923964107578</v>
+        <v>0.1978863834061896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08209333333333334</v>
+        <v>0.165128</v>
       </c>
       <c r="H14">
-        <v>0.24628</v>
+        <v>0.495384</v>
       </c>
       <c r="I14">
-        <v>0.07485222854669725</v>
+        <v>0.1097714966244839</v>
       </c>
       <c r="J14">
-        <v>0.09865860668954067</v>
+        <v>0.1430056462207791</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.03556466666666667</v>
+        <v>0.204759</v>
       </c>
       <c r="N14">
-        <v>0.106694</v>
+        <v>0.409518</v>
       </c>
       <c r="O14">
-        <v>0.01914578269786067</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P14">
-        <v>0.02421928699130962</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q14">
-        <v>0.002919622035555556</v>
+        <v>0.033811444152</v>
       </c>
       <c r="R14">
-        <v>0.02627659832</v>
+        <v>0.202868664912</v>
       </c>
       <c r="S14">
-        <v>0.001433104502205669</v>
+        <v>0.01549725308160502</v>
       </c>
       <c r="T14">
-        <v>0.002389441109576725</v>
+        <v>0.01737853496056998</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08209333333333334</v>
+        <v>0.165128</v>
       </c>
       <c r="H15">
-        <v>0.24628</v>
+        <v>0.495384</v>
       </c>
       <c r="I15">
-        <v>0.07485222854669725</v>
+        <v>0.1097714966244839</v>
       </c>
       <c r="J15">
-        <v>0.09865860668954067</v>
+        <v>0.1430056462207791</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.095428</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N15">
-        <v>2.190856</v>
+        <v>1.407406</v>
       </c>
       <c r="O15">
-        <v>0.5897096307895137</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P15">
-        <v>0.4973191577842487</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q15">
-        <v>0.08992733594666667</v>
+        <v>0.07746737932266666</v>
       </c>
       <c r="R15">
-        <v>0.5395640156800001</v>
+        <v>0.697206413904</v>
       </c>
       <c r="S15">
-        <v>0.04414108006004513</v>
+        <v>0.03550666388383317</v>
       </c>
       <c r="T15">
-        <v>0.04906481518700981</v>
+        <v>0.05972546841583509</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08209333333333334</v>
+        <v>0.165128</v>
       </c>
       <c r="H16">
-        <v>0.24628</v>
+        <v>0.495384</v>
       </c>
       <c r="I16">
-        <v>0.07485222854669725</v>
+        <v>0.1097714966244839</v>
       </c>
       <c r="J16">
-        <v>0.09865860668954067</v>
+        <v>0.1430056462207791</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1854883333333334</v>
+        <v>0.7764725</v>
       </c>
       <c r="N16">
-        <v>0.5564650000000001</v>
+        <v>1.552945</v>
       </c>
       <c r="O16">
-        <v>0.09985526804661032</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P16">
-        <v>0.1263162458584279</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q16">
-        <v>0.01522735557777778</v>
+        <v>0.12821735098</v>
       </c>
       <c r="R16">
-        <v>0.1370462002000001</v>
+        <v>0.76930410588</v>
       </c>
       <c r="S16">
-        <v>0.007474389345416591</v>
+        <v>0.05876757965904576</v>
       </c>
       <c r="T16">
-        <v>0.01246218481864596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.5717085</v>
-      </c>
-      <c r="H17">
-        <v>1.143417</v>
-      </c>
-      <c r="I17">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J17">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.07195549999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.143911</v>
-      </c>
-      <c r="O17">
-        <v>0.03873632163709056</v>
-      </c>
-      <c r="P17">
-        <v>0.03266745843446078</v>
-      </c>
-      <c r="Q17">
-        <v>0.04113757097174999</v>
-      </c>
-      <c r="R17">
-        <v>0.164550283887</v>
-      </c>
-      <c r="S17">
-        <v>0.02019248979883867</v>
-      </c>
-      <c r="T17">
-        <v>0.01496324631232245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.5717085</v>
-      </c>
-      <c r="H18">
-        <v>1.143417</v>
-      </c>
-      <c r="I18">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J18">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.4691353333333333</v>
-      </c>
-      <c r="N18">
-        <v>1.407406</v>
-      </c>
-      <c r="O18">
-        <v>0.2525529968289247</v>
-      </c>
-      <c r="P18">
-        <v>0.3194778509315529</v>
-      </c>
-      <c r="Q18">
-        <v>0.268208657717</v>
-      </c>
-      <c r="R18">
-        <v>1.609251946302</v>
-      </c>
-      <c r="S18">
-        <v>0.1316509569471147</v>
-      </c>
-      <c r="T18">
-        <v>0.1463360176737045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.5717085</v>
-      </c>
-      <c r="H19">
-        <v>1.143417</v>
-      </c>
-      <c r="I19">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J19">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.03556466666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.106694</v>
-      </c>
-      <c r="O19">
-        <v>0.01914578269786067</v>
-      </c>
-      <c r="P19">
-        <v>0.02421928699130962</v>
-      </c>
-      <c r="Q19">
-        <v>0.020332622233</v>
-      </c>
-      <c r="R19">
-        <v>0.121995733398</v>
-      </c>
-      <c r="S19">
-        <v>0.009980323517531869</v>
-      </c>
-      <c r="T19">
-        <v>0.01109358285361738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.5717085</v>
-      </c>
-      <c r="H20">
-        <v>1.143417</v>
-      </c>
-      <c r="I20">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J20">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.095428</v>
-      </c>
-      <c r="N20">
-        <v>2.190856</v>
-      </c>
-      <c r="O20">
-        <v>0.5897096307895137</v>
-      </c>
-      <c r="P20">
-        <v>0.4973191577842487</v>
-      </c>
-      <c r="Q20">
-        <v>0.626265498738</v>
-      </c>
-      <c r="R20">
-        <v>2.505061994952</v>
-      </c>
-      <c r="S20">
-        <v>0.3074041416620307</v>
-      </c>
-      <c r="T20">
-        <v>0.2277957762980558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.5717085</v>
-      </c>
-      <c r="H21">
-        <v>1.143417</v>
-      </c>
-      <c r="I21">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J21">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1854883333333334</v>
-      </c>
-      <c r="N21">
-        <v>0.5564650000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.09985526804661032</v>
-      </c>
-      <c r="P21">
-        <v>0.1263162458584279</v>
-      </c>
-      <c r="Q21">
-        <v>0.1060452568175</v>
-      </c>
-      <c r="R21">
-        <v>0.636271540905</v>
-      </c>
-      <c r="S21">
-        <v>0.05205260582772577</v>
-      </c>
-      <c r="T21">
-        <v>0.05785883538566553</v>
+        <v>0.065901642844374</v>
       </c>
     </row>
   </sheetData>
